--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P12_trail13 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P12_trail13 Features.xlsx
@@ -4487,7 +4487,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z5"/>
+  <dimension ref="A1:X5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4498,29 +4498,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="21" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="18" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="19" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="21" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="21" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
-    <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
-    <col width="17" bestFit="1" customWidth="1" min="13" max="13"/>
-    <col width="21" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
-    <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="21" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="21" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="21" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="17" bestFit="1" customWidth="1" min="11" max="11"/>
+    <col width="21" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
+    <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="21" bestFit="1" customWidth="1" min="16" max="16"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
     <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="18" bestFit="1" customWidth="1" min="26" max="26"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4541,115 +4539,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -4666,72 +4654,66 @@
         <v>1.81683466074357e-07</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>0.5312190184550307</v>
+        <v>6.063029626068322e-07</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>-0.7746350853957322</v>
+        <v>4.719234150302004e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>6.063029626068322e-07</v>
+        <v>-0.02022522603414438</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>4.719234150302004e-06</v>
+        <v>0.1257804240296784</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>-0.02022522603414438</v>
+        <v>0.01622474157759099</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.1257804240296784</v>
+        <v>1.859844719532282</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.01622474157759099</v>
+        <v>2.501537432139051</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.831906846026559</v>
+        <v>4.260755457941226</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>2.501537432139051</v>
+        <v>7.47499609235155e-16</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>4.260755457941226</v>
+        <v>587010165.5780241</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>7.47499609235155e-16</v>
+        <v>2.031501755734233e-07</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>587010165.5780241</v>
+        <v>257.5741138826092</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>2.031501755734233e-07</v>
+        <v>6.360081433636486e-05</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>257.5741138826092</v>
+        <v>6.006180732908951</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>6.360081433636486e-05</v>
+        <v>2.491051960838306</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>6.006180732908951</v>
+        <v>0.002294348941507513</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>2.491051960838306</v>
+        <v>4.434518032480531</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.002294348941507513</v>
+        <v>0.9635377651354305</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>4.434518032480531</v>
+        <v>1.479923841929222</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9635377651354305</v>
+        <v>42</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.479923841929222</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>42</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>1.125602098104705</v>
       </c>
     </row>
@@ -4746,72 +4728,66 @@
         <v>1.839844703540166e-07</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>0.5334245017159481</v>
+        <v>6.063029626068322e-07</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>-0.8080107125410079</v>
+        <v>4.715943088179434e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>6.063029626068322e-07</v>
+        <v>-0.01629211093940293</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>4.715943088179434e-06</v>
+        <v>0.1218675387791341</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>-0.01629211093940293</v>
+        <v>0.01511610133373329</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.1218675387791341</v>
+        <v>1.86627900580797</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.01511610133373329</v>
+        <v>2.389930102437213</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.836030118677813</v>
+        <v>4.05144530448622</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>2.389930102437213</v>
+        <v>8.267310092109875e-16</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>4.05144530448622</v>
+        <v>543979313.3957804</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>8.267310092109875e-16</v>
+        <v>2.196436180950142e-07</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>543979313.3957804</v>
+        <v>244.6408610398347</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>2.196436180950142e-07</v>
+        <v>7.689748294132391e-05</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>244.6408610398347</v>
+        <v>6.145456243433561</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>7.689748294132391e-05</v>
+        <v>2.792938183378743</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>6.145456243433561</v>
+        <v>0.002904158973802807</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>2.792938183378743</v>
+        <v>4.282096076480556</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.002904158973802807</v>
+        <v>0.9624828996947041</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>4.282096076480556</v>
+        <v>1.466449385952883</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9624828996947041</v>
+        <v>47</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.466449385952883</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>47</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>1.047931050737587</v>
       </c>
     </row>
@@ -4826,72 +4802,66 @@
         <v>1.860765505438001e-07</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>0.5334159839857309</v>
+        <v>6.063029626068322e-07</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>-0.8395352206814399</v>
+        <v>4.713090317316956e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>6.063029626068322e-07</v>
+        <v>-0.01490403201920732</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>4.713090317316956e-06</v>
+        <v>0.120316570129052</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>-0.01490403201920732</v>
+        <v>0.01469821848992151</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.120316570129052</v>
+        <v>1.859583776015974</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.01469821848992151</v>
+        <v>2.312365485953267</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.831645820657811</v>
+        <v>4.24216159365645</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>2.312365485953267</v>
+        <v>7.540667171600293e-16</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>4.24216159365645</v>
+        <v>604636047.005612</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>7.540667171600293e-16</v>
+        <v>1.975914299085146e-07</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>604636047.005612</v>
+        <v>275.6752917775097</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>1.975914299085146e-07</v>
+        <v>8.724738214162225e-05</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>275.6752917775097</v>
+        <v>6.940730730058665</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>8.724738214162225e-05</v>
+        <v>1.435317525113246</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>6.940730730058665</v>
+        <v>0.00420303297057464</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.435317525113246</v>
+        <v>3.916539509527284</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.00420303297057464</v>
+        <v>0.9622628756514966</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>3.916539509527284</v>
+        <v>1.491916157346381</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9622628756514966</v>
+        <v>55</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.491916157346381</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>55</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>0.9243445801893326</v>
       </c>
     </row>
@@ -4906,72 +4876,66 @@
         <v>1.880503928393288e-07</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>0.5362910074065004</v>
+        <v>6.063029626068322e-07</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>-0.8685684799416169</v>
+        <v>4.710277815533592e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>6.063029626068322e-07</v>
+        <v>-0.01543426147541162</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>4.710277815533592e-06</v>
+        <v>0.1187048265329593</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>-0.01543426147541162</v>
+        <v>0.01432844882801735</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.1187048265329593</v>
+        <v>1.863062001258743</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.01432844882801735</v>
+        <v>2.685369214499931</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.839519290875147</v>
+        <v>4.182981091397916</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>2.685369214499931</v>
+        <v>7.755546125421742e-16</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>4.182981091397916</v>
+        <v>580031400.3284798</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>7.755546125421742e-16</v>
+        <v>2.06053889105332e-07</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>580031400.3284798</v>
+        <v>260.9248215205911</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>2.06053889105332e-07</v>
+        <v>9.695979225720068e-05</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>260.9248215205911</v>
+        <v>7.662843285777591</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>9.695979225720068e-05</v>
+        <v>1.277883311965354</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>7.662843285777591</v>
+        <v>0.005693398255398443</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.277883311965354</v>
+        <v>3.595248622832348</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.005693398255398443</v>
+        <v>0.9625691893497803</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>3.595248622832348</v>
+        <v>1.456583174755972</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9625691893497803</v>
+        <v>54</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.456583174755972</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>54</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>0.7735835216297242</v>
       </c>
     </row>
@@ -5348,7 +5312,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.460514564167323</v>
+        <v>1.482131555815578</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.300317871731799</v>
@@ -5437,7 +5401,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.470956158255657</v>
+        <v>1.489573475569516</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.258945784968181</v>
@@ -5526,7 +5490,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.467648224219279</v>
+        <v>1.477115404545153</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.234692626402593</v>
@@ -5615,7 +5579,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.498692700894454</v>
+        <v>1.505984801628741</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.080286574062027</v>
@@ -5704,7 +5668,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.50472162747228</v>
+        <v>1.507374326172271</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.218802867638312</v>
@@ -5793,7 +5757,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.490941611042304</v>
+        <v>1.493102924079232</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.225016420728476</v>
@@ -5882,7 +5846,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.535960403283595</v>
+        <v>1.52866070113669</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.333208443535217</v>
@@ -5971,7 +5935,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.52321985734013</v>
+        <v>1.51707450590172</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.577640064456862</v>
@@ -6060,7 +6024,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.541385085951626</v>
+        <v>1.538372805810584</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.102216224711629</v>
@@ -6149,7 +6113,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.538844162617455</v>
+        <v>1.533264091200187</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.539248143444856</v>
@@ -6238,7 +6202,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.539227883015635</v>
+        <v>1.532212980723506</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.497843748774986</v>
@@ -6327,7 +6291,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.548029968639489</v>
+        <v>1.539543752045452</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.600028873208323</v>
@@ -6416,7 +6380,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.560372059209434</v>
+        <v>1.54847065289015</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.368321051865219</v>
@@ -6505,7 +6469,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.552407906221025</v>
+        <v>1.542814470242875</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.623824935082909</v>
@@ -6594,7 +6558,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.557278541022092</v>
+        <v>1.544568591197244</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.614415017920283</v>
@@ -6683,7 +6647,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.554289529397288</v>
+        <v>1.543445000238103</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.575808057656541</v>
@@ -6772,7 +6736,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.52947046198731</v>
+        <v>1.526372693181447</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.526963279345813</v>
@@ -6861,7 +6825,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.515971083878289</v>
+        <v>1.521349028836499</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.581698207233746</v>
@@ -6950,7 +6914,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.532987288504781</v>
+        <v>1.537283219318389</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.46227942295797</v>
@@ -7039,7 +7003,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.549677866387418</v>
+        <v>1.547429320630807</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.610513420849847</v>
@@ -7128,7 +7092,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.565651257306785</v>
+        <v>1.568079993712628</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.483452376310125</v>
@@ -7217,7 +7181,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.572755402220475</v>
+        <v>1.577514449190012</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.409232619627979</v>
@@ -7306,7 +7270,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.574421341226882</v>
+        <v>1.573456593619301</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.711163392316126</v>
@@ -7395,7 +7359,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.518140409296269</v>
+        <v>1.528554008006569</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.128219879082121</v>
@@ -7484,7 +7448,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.523133317539213</v>
+        <v>1.532690889300173</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.098653258821686</v>
@@ -7573,7 +7537,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.495091369584115</v>
+        <v>1.494311509196881</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.174777774166758</v>
@@ -7662,7 +7626,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.475483966648713</v>
+        <v>1.480322312130086</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.119311039716321</v>
@@ -7751,7 +7715,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.461357923068157</v>
+        <v>1.469615658591184</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.099009913097776</v>
@@ -7840,7 +7804,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.452624276798345</v>
+        <v>1.462222527621616</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.138364944369818</v>
@@ -7929,7 +7893,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.448786313193172</v>
+        <v>1.459494952693177</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.063114610899796</v>
@@ -8018,7 +7982,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.452570216250277</v>
+        <v>1.466368127761222</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.133773636940501</v>
@@ -8107,7 +8071,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.469597157854506</v>
+        <v>1.480079513316034</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.129605347073457</v>
@@ -8196,7 +8160,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.45879849229853</v>
+        <v>1.470557263273641</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.106922897448071</v>
@@ -8285,7 +8249,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.457322746136087</v>
+        <v>1.472464466294848</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.083429270671063</v>
@@ -8374,7 +8338,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.449672782873519</v>
+        <v>1.470133552801341</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.108737770803703</v>
@@ -8463,7 +8427,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.444263069436509</v>
+        <v>1.462747291707448</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.121541636406151</v>
@@ -8552,7 +8516,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.440667846470805</v>
+        <v>1.457500310214089</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.115727985082294</v>
@@ -8641,7 +8605,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.440292310053524</v>
+        <v>1.453394739070927</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>1.998726360346754</v>
@@ -8730,7 +8694,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.473942846864374</v>
+        <v>1.488420921972345</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.223417630702145</v>
@@ -8819,7 +8783,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.469274192280922</v>
+        <v>1.483023319992488</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.136243829743095</v>
@@ -8908,7 +8872,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.516779826198403</v>
+        <v>1.529188011045817</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.428749534664563</v>
@@ -8997,7 +8961,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.53539907752434</v>
+        <v>1.547626399324039</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.350004780214003</v>
@@ -9086,7 +9050,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.54674916835949</v>
+        <v>1.558288316335821</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.703527539613241</v>
@@ -9175,7 +9139,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.556113272643444</v>
+        <v>1.568512359355539</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.699359060072035</v>
@@ -9264,7 +9228,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.543562450518086</v>
+        <v>1.556547173991166</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.541869190742029</v>
@@ -9353,7 +9317,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.542570330950855</v>
+        <v>1.554168839194782</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.60447699695082</v>
@@ -9442,7 +9406,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.560921976049212</v>
+        <v>1.566093286563411</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.216271683955244</v>
@@ -9531,7 +9495,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.559570099295646</v>
+        <v>1.56644915520556</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.595340471271356</v>
@@ -9620,7 +9584,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.548166472193921</v>
+        <v>1.555565619423516</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.792383777072852</v>
@@ -9906,7 +9870,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.206580374899645</v>
+        <v>1.198973734337393</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.605396808304068</v>
@@ -9995,7 +9959,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.203840194794404</v>
+        <v>1.194301047204135</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.609689173504755</v>
@@ -10084,7 +10048,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.210016047639146</v>
+        <v>1.1968400336339</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.564014824184945</v>
@@ -10173,7 +10137,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.290696170031073</v>
+        <v>1.278542092397142</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.471853115421155</v>
@@ -10262,7 +10226,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.427003545854061</v>
+        <v>1.411234021837601</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.696186765544449</v>
@@ -10351,7 +10315,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.477866929624533</v>
+        <v>1.469443389801381</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.481357599840549</v>
@@ -10440,7 +10404,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.497002261906618</v>
+        <v>1.484607638686251</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.531472517218634</v>
@@ -10529,7 +10493,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.504333886945372</v>
+        <v>1.489321635089889</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.605507780173359</v>
@@ -10618,7 +10582,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.531094231907707</v>
+        <v>1.518410057953652</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.124430907511439</v>
@@ -10707,7 +10671,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.521495739666766</v>
+        <v>1.508295257160827</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.675511728931874</v>
@@ -10796,7 +10760,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.521559398127547</v>
+        <v>1.507242458826753</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.571385802449847</v>
@@ -10885,7 +10849,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.531182691145186</v>
+        <v>1.514863080112775</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.460650203282523</v>
@@ -10974,7 +10938,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.541534907477327</v>
+        <v>1.519213128875717</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.381683354080967</v>
@@ -11063,7 +11027,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.532508475505455</v>
+        <v>1.512575193473751</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.08569377935343</v>
@@ -11152,7 +11116,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.53111050066782</v>
+        <v>1.505092888906639</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.816832950427413</v>
@@ -11241,7 +11205,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.542624905877231</v>
+        <v>1.513134850455654</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.642537582571242</v>
@@ -11330,7 +11294,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.548104050218431</v>
+        <v>1.521290229026572</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.59522692657564</v>
@@ -11419,7 +11383,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.560788633308723</v>
+        <v>1.537833382666882</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.528640147119276</v>
@@ -11508,7 +11472,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.569270431716239</v>
+        <v>1.542487872811747</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.660534730480083</v>
@@ -11597,7 +11561,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.574475270824461</v>
+        <v>1.552960906814601</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.828545157432774</v>
@@ -11686,7 +11650,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.580143040668957</v>
+        <v>1.558925125589493</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.609200849469597</v>
@@ -11775,7 +11739,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.58819131290639</v>
+        <v>1.566589749126815</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.772837622209827</v>
@@ -11864,7 +11828,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.582544296431313</v>
+        <v>1.56212034956969</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.80601636518199</v>
@@ -11953,7 +11917,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.547330783691449</v>
+        <v>1.533861165409727</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.335804126134034</v>
@@ -12042,7 +12006,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.555955220599838</v>
+        <v>1.541591661372153</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.316252829040112</v>
@@ -12131,7 +12095,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.539277438766725</v>
+        <v>1.522673702091624</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.321422995746002</v>
@@ -12220,7 +12184,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.524429977336165</v>
+        <v>1.512982344239397</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.359310342749021</v>
@@ -12309,7 +12273,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.519542889581539</v>
+        <v>1.513830080316004</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.292142305475246</v>
@@ -12398,7 +12362,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.522700341587466</v>
+        <v>1.519396259656395</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.449958065263884</v>
@@ -12487,7 +12451,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.5238108263686</v>
+        <v>1.523222155978311</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.379653678883488</v>
@@ -12576,7 +12540,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.522468626724493</v>
+        <v>1.522554070174652</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.359375116318924</v>
@@ -12665,7 +12629,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.527847921821986</v>
+        <v>1.528199618297267</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.384948049040419</v>
@@ -12754,7 +12718,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.507590255439443</v>
+        <v>1.506120426127401</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.440481691495076</v>
@@ -12843,7 +12807,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.514538615435292</v>
+        <v>1.510952127570423</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.240567468652559</v>
@@ -12932,7 +12896,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.509930942877594</v>
+        <v>1.511208143033777</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.339635271047772</v>
@@ -13021,7 +12985,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.511816662963735</v>
+        <v>1.513344291553453</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.324082740220629</v>
@@ -13110,7 +13074,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.504478159837025</v>
+        <v>1.505723382560527</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.432544757012602</v>
@@ -13199,7 +13163,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.493795048335311</v>
+        <v>1.498196174658184</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.210400346152519</v>
@@ -13288,7 +13252,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.51633896842849</v>
+        <v>1.517657490352954</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.390511230743178</v>
@@ -13377,7 +13341,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.512552778544292</v>
+        <v>1.510689881495966</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.488290884491767</v>
@@ -13466,7 +13430,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.551237912201949</v>
+        <v>1.547041118563763</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.514057677129417</v>
@@ -13555,7 +13519,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.562596229927936</v>
+        <v>1.557973898992204</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.435285436709748</v>
@@ -13644,7 +13608,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.565071772994788</v>
+        <v>1.558360935647957</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.837260525365818</v>
@@ -13733,7 +13697,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.569427848441637</v>
+        <v>1.559392813766653</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.837775090531449</v>
@@ -13822,7 +13786,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.572652337792346</v>
+        <v>1.564771936457197</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.849823603518415</v>
@@ -13911,7 +13875,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.568277469280176</v>
+        <v>1.555081356789399</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.624707409250997</v>
@@ -14000,7 +13964,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.58609077296326</v>
+        <v>1.56745306422493</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.356664264680802</v>
@@ -14089,7 +14053,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.582201897724377</v>
+        <v>1.559304832163326</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.694758938862977</v>
@@ -14178,7 +14142,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.577744340344915</v>
+        <v>1.552897910328873</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.717907562830168</v>
@@ -14464,7 +14428,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.447072419646268</v>
+        <v>1.463589595775658</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.207963855663355</v>
@@ -14553,7 +14517,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.444522295872248</v>
+        <v>1.458201700685708</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.235933010666811</v>
@@ -14642,7 +14606,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.432585745231168</v>
+        <v>1.443286020900125</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.197961690423561</v>
@@ -14731,7 +14695,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.472226786979309</v>
+        <v>1.492179497086196</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.890440109316708</v>
@@ -14820,7 +14784,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.493013468638558</v>
+        <v>1.505783853791053</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.228871967665368</v>
@@ -14909,7 +14873,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.480315376078124</v>
+        <v>1.492561044358102</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.298192476349449</v>
@@ -14998,7 +14962,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.46251600020493</v>
+        <v>1.474265024579627</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.297564230192967</v>
@@ -15087,7 +15051,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.468166751581843</v>
+        <v>1.475016615908579</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.077835726120985</v>
@@ -15176,7 +15140,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.486702923864686</v>
+        <v>1.494144926030501</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.010054869554404</v>
@@ -15265,7 +15229,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.490839112069772</v>
+        <v>1.496753926360843</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.328960482641651</v>
@@ -15354,7 +15318,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.50567560807615</v>
+        <v>1.508068999721307</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.327459165178231</v>
@@ -15443,7 +15407,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.515589856362639</v>
+        <v>1.52010067677446</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.255656316784299</v>
@@ -15532,7 +15496,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.509511059072023</v>
+        <v>1.509760637534185</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.255858754190191</v>
@@ -15621,7 +15585,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.508415626517412</v>
+        <v>1.512335776766518</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.889570103753462</v>
@@ -15710,7 +15674,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.491477890784169</v>
+        <v>1.49011255497667</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.683703966981666</v>
@@ -15799,7 +15763,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.481249292387771</v>
+        <v>1.48285420367441</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.756964224019173</v>
@@ -15888,7 +15852,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.461156640201292</v>
+        <v>1.463436835648119</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.57897188531709</v>
@@ -15977,7 +15941,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.456491222022911</v>
+        <v>1.461858781175934</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.542311088010147</v>
@@ -16066,7 +16030,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.463539071718537</v>
+        <v>1.468083133248768</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.435733129574378</v>
@@ -16155,7 +16119,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.438531355496397</v>
+        <v>1.44592197559185</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.563152809924407</v>
@@ -16244,7 +16208,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.442645623718658</v>
+        <v>1.451638224330576</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.461870607606123</v>
@@ -16333,7 +16297,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.464305920048504</v>
+        <v>1.47111865935234</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.502954787691859</v>
@@ -16422,7 +16386,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.452295056959605</v>
+        <v>1.458399477487461</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.481436354872377</v>
@@ -16511,7 +16475,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.429077853711748</v>
+        <v>1.440548146188343</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.522603626108282</v>
@@ -16600,7 +16564,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.43110304951626</v>
+        <v>1.44406449370001</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.474649661454924</v>
@@ -16689,7 +16653,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.432528265967429</v>
+        <v>1.444614446833814</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.360825755237837</v>
@@ -16778,7 +16742,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.43997341446951</v>
+        <v>1.450064363068626</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.419584843354128</v>
@@ -16867,7 +16831,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.442117442096371</v>
+        <v>1.456157074139858</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.571692230461524</v>
@@ -16956,7 +16920,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.436347481905351</v>
+        <v>1.451765190152723</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.420598304315071</v>
@@ -17045,7 +17009,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.441579090321955</v>
+        <v>1.456541916029779</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.191784210207374</v>
@@ -17134,7 +17098,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.447251296048759</v>
+        <v>1.464595621090216</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.581454384598209</v>
@@ -17223,7 +17187,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.458782633416322</v>
+        <v>1.469942981588048</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.219141122184231</v>
@@ -17312,7 +17276,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.439295334131168</v>
+        <v>1.453040671564046</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.37882470380111</v>
@@ -17401,7 +17365,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.444709229921088</v>
+        <v>1.460055812701654</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.152868047838816</v>
@@ -17490,7 +17454,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.467171765755687</v>
+        <v>1.480297671736138</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.349091909808338</v>
@@ -17579,7 +17543,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.444728860730362</v>
+        <v>1.460131356376801</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.292805122871818</v>
@@ -17668,7 +17632,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.428959431771507</v>
+        <v>1.444384016636575</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.2855556120806</v>
@@ -17757,7 +17721,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.43439229064043</v>
+        <v>1.449029979536295</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.445487288606839</v>
@@ -17846,7 +17810,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.453686347905417</v>
+        <v>1.468382473921305</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.271330231739972</v>
@@ -17935,7 +17899,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.460986531323683</v>
+        <v>1.47514830453695</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.362181734726251</v>
@@ -18024,7 +17988,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.444839574404231</v>
+        <v>1.456650171934857</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.368721038606855</v>
@@ -18113,7 +18077,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.422526389957051</v>
+        <v>1.428936513934426</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.276211674178659</v>
@@ -18202,7 +18166,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.417562907991762</v>
+        <v>1.421307699518199</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.370649441772917</v>
@@ -18291,7 +18255,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.410955094592609</v>
+        <v>1.415863974876236</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.458141133822044</v>
@@ -18380,7 +18344,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.424418682065555</v>
+        <v>1.42811397908153</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.354324035992112</v>
@@ -18469,7 +18433,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.423552700241322</v>
+        <v>1.425309214692394</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.27955235122299</v>
@@ -18558,7 +18522,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.443593227754953</v>
+        <v>1.440954923260009</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.018273548859732</v>
@@ -18647,7 +18611,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.432931809564877</v>
+        <v>1.429606456330983</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.493810384491475</v>
@@ -18736,7 +18700,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.430550806239512</v>
+        <v>1.427529745063235</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.618982033129273</v>
@@ -19022,7 +18986,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.204056860797302</v>
+        <v>1.20103098567517</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.646674794949648</v>
@@ -19111,7 +19075,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.185589741798625</v>
+        <v>1.183934568816015</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.657230095680138</v>
@@ -19200,7 +19164,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.183207458932136</v>
+        <v>1.179707945966985</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.635535234759897</v>
@@ -19289,7 +19253,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.230211457039776</v>
+        <v>1.224849092153801</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.494939043923095</v>
@@ -19378,7 +19342,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.229812990444041</v>
+        <v>1.230854907822801</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.574007808899391</v>
@@ -19467,7 +19431,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.222563612626013</v>
+        <v>1.22598598956833</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.557841542389187</v>
@@ -19556,7 +19520,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.214574940154546</v>
+        <v>1.215874527582771</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.55551634060016</v>
@@ -19645,7 +19609,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.215378655618929</v>
+        <v>1.216341137589839</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.51873093113288</v>
@@ -19734,7 +19698,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.279089526240491</v>
+        <v>1.287101854150663</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.527315376561786</v>
@@ -19823,7 +19787,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.3150681089604</v>
+        <v>1.32193083477102</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1.929832116247495</v>
@@ -19912,7 +19876,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.318786345548407</v>
+        <v>1.320791801973846</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.070662566378233</v>
@@ -20001,7 +19965,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.283104171409953</v>
+        <v>1.287911573446158</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.100587817580819</v>
@@ -20090,7 +20054,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.310884171961437</v>
+        <v>1.315819183528703</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.064930311070861</v>
@@ -20179,7 +20143,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.307709927883454</v>
+        <v>1.313288392228749</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.148017674355898</v>
@@ -20268,7 +20232,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.301018401742111</v>
+        <v>1.306132182820764</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.150184499226604</v>
@@ -20357,7 +20321,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.288825331519224</v>
+        <v>1.294838187527716</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1.832490062506418</v>
@@ -20446,7 +20410,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.211864617200317</v>
+        <v>1.206828506258045</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1.534245887001832</v>
@@ -20535,7 +20499,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.206730180014006</v>
+        <v>1.204615955430515</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1.532533090748843</v>
@@ -20624,7 +20588,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.220475871113029</v>
+        <v>1.219011726733732</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.537304079368245</v>
@@ -20713,7 +20677,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.224900234804966</v>
+        <v>1.222488871180089</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1.521657142397686</v>
@@ -20802,7 +20766,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.232687661405067</v>
+        <v>1.230057261937144</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.522652790393287</v>
@@ -20891,7 +20855,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.243079692581209</v>
+        <v>1.241434890370994</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1.509959140720042</v>
@@ -20980,7 +20944,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.247400186749714</v>
+        <v>1.23380338392757</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.529592388616414</v>
@@ -21069,7 +21033,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.179286029509285</v>
+        <v>1.17152832915464</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1.60520983378372</v>
@@ -21158,7 +21122,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.180782283600317</v>
+        <v>1.176157705820568</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1.603727985572103</v>
@@ -21247,7 +21211,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.184991196372223</v>
+        <v>1.181290303106377</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1.60458126142115</v>
@@ -21336,7 +21300,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.197479836609638</v>
+        <v>1.193474923330093</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>1.590722452491524</v>
@@ -21425,7 +21389,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.189335037903174</v>
+        <v>1.186658539652261</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>1.587355683056749</v>
@@ -21514,7 +21478,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.182004821777698</v>
+        <v>1.17841438512122</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>1.593085161761093</v>
@@ -21603,7 +21567,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.184584786691423</v>
+        <v>1.181322836147146</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>1.603880568243699</v>
@@ -21692,7 +21656,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.190568385413963</v>
+        <v>1.183912349166829</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>1.545015104289362</v>
@@ -21781,7 +21745,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.239107686898064</v>
+        <v>1.230285420245204</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>1.53779773078953</v>
@@ -21870,7 +21834,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.169859323142295</v>
+        <v>1.163195430361834</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>1.586994028565933</v>
@@ -21959,7 +21923,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.163021566698355</v>
+        <v>1.157282626016584</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>1.593481267361336</v>
@@ -22048,7 +22012,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.158884496013425</v>
+        <v>1.15244290275981</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>1.595830513957348</v>
@@ -22137,7 +22101,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.153667131123759</v>
+        <v>1.146829006071277</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>1.602178120484455</v>
@@ -22226,7 +22190,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.147825928708418</v>
+        <v>1.141647997533914</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>1.598322420249496</v>
@@ -22315,7 +22279,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.152823597187576</v>
+        <v>1.144503296729472</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>1.594819079001937</v>
@@ -22404,7 +22368,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.172042286210734</v>
+        <v>1.173748105254616</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>1.558922215764858</v>
@@ -22493,7 +22457,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.175397915327788</v>
+        <v>1.174041463024669</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>1.533071439724157</v>
@@ -22582,7 +22546,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.17396964526242</v>
+        <v>1.168335938659146</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>1.547500915010282</v>
@@ -22671,7 +22635,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.164058959742007</v>
+        <v>1.15992802672747</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>1.548863265152062</v>
@@ -22760,7 +22724,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.166933139016983</v>
+        <v>1.163376071144545</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>1.551604997295018</v>
@@ -22849,7 +22813,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.173050108782435</v>
+        <v>1.171316350866551</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>1.549898767152031</v>
@@ -22938,7 +22902,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.157703970939181</v>
+        <v>1.154368214317449</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>1.563393040279332</v>
@@ -23027,7 +22991,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.165132688151548</v>
+        <v>1.161265305383083</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>1.528301479239677</v>
@@ -23116,7 +23080,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.252785931034367</v>
+        <v>1.245713433310052</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>1.378574137278176</v>
@@ -23205,7 +23169,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.241648512159898</v>
+        <v>1.244153931135458</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>1.775619020008313</v>
@@ -23294,7 +23258,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.248676579092347</v>
+        <v>1.252043915490016</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>1.880942560396692</v>
@@ -23580,7 +23544,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.532481685848857</v>
+        <v>1.555166837294678</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.304828596297452</v>
@@ -23669,7 +23633,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.516481089968673</v>
+        <v>1.536082064847824</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.28688787440317</v>
@@ -23758,7 +23722,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.505770946296152</v>
+        <v>1.523237872336344</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.19151828982623</v>
@@ -23847,7 +23811,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.553324519808356</v>
+        <v>1.569034280433222</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.981819382971647</v>
@@ -23936,7 +23900,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.601085269884759</v>
+        <v>1.610697504676949</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.295449083106672</v>
@@ -24025,7 +23989,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.609488175124912</v>
+        <v>1.617641188800426</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.422516644404869</v>
@@ -24114,7 +24078,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.614578880110406</v>
+        <v>1.617342789140798</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.444637091290497</v>
@@ -24203,7 +24167,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.611382769679874</v>
+        <v>1.613800778607867</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.305638726091019</v>
@@ -24292,7 +24256,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.639677896595991</v>
+        <v>1.633764657131709</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.203309970874913</v>
@@ -24381,7 +24345,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.634196074753126</v>
+        <v>1.625157602036317</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.391678277345626</v>
@@ -24470,7 +24434,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.623847751808759</v>
+        <v>1.619453380136129</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.410029088603098</v>
@@ -24559,7 +24523,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.631322434254187</v>
+        <v>1.626879970704382</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.50187984819368</v>
@@ -24648,7 +24612,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.636436075457146</v>
+        <v>1.624816645638228</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.309725347909072</v>
@@ -24737,7 +24701,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.634433838669489</v>
+        <v>1.629204736660501</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.169954835119184</v>
@@ -24826,7 +24790,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.629752399099023</v>
+        <v>1.627696623577879</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.211656832577764</v>
@@ -24915,7 +24879,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.627761565003242</v>
+        <v>1.622700591400356</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.929632853029482</v>
@@ -25004,7 +24968,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.614431681231034</v>
+        <v>1.621017805352587</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.633967784550818</v>
@@ -25093,7 +25057,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.62255941189577</v>
+        <v>1.628181311432733</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.637036768820091</v>
@@ -25182,7 +25146,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.632352533309168</v>
+        <v>1.636067291879131</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.510332083277813</v>
@@ -25271,7 +25235,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.63161198929912</v>
+        <v>1.63546253770225</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.729191070047167</v>
@@ -25360,7 +25324,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.63150897314357</v>
+        <v>1.638179072870339</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.70448315282237</v>
@@ -25449,7 +25413,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.63714497139687</v>
+        <v>1.644962006909457</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.653441063801234</v>
@@ -25538,7 +25502,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.63915670262989</v>
+        <v>1.642810181365247</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.62479156823935</v>
@@ -25627,7 +25591,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.619330448344796</v>
+        <v>1.629268244042442</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.720471125438906</v>
@@ -25716,7 +25680,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.627980553024069</v>
+        <v>1.63823745440444</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.495814760007579</v>
@@ -25805,7 +25769,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.63469082362153</v>
+        <v>1.64340753514255</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.705656689206501</v>
@@ -25894,7 +25858,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.635281103740443</v>
+        <v>1.645160662034371</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.541306850357651</v>
@@ -25983,7 +25947,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.638267838953843</v>
+        <v>1.653368599849624</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.588511944998714</v>
@@ -26072,7 +26036,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.633919243090796</v>
+        <v>1.649468950122602</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.656378491772726</v>
@@ -26161,7 +26125,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.628569070523037</v>
+        <v>1.644751352001176</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.736427132566871</v>
@@ -26250,7 +26214,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.628745971028629</v>
+        <v>1.642029976292618</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.419216118144242</v>
@@ -26339,7 +26303,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.65375503413</v>
+        <v>1.662904488789811</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.578495902945954</v>
@@ -26428,7 +26392,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.628923882458486</v>
+        <v>1.645580173807829</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.619902340509153</v>
@@ -26517,7 +26481,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.625092304434067</v>
+        <v>1.639599636357757</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.567902475972325</v>
@@ -26606,7 +26570,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.63020576330285</v>
+        <v>1.646238807283646</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.650722961978608</v>
@@ -26695,7 +26659,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.620097890950254</v>
+        <v>1.635627794078006</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.766362210290232</v>
@@ -26784,7 +26748,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.60589558157176</v>
+        <v>1.62118958978566</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.720339275272824</v>
@@ -26873,7 +26837,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.614269574452834</v>
+        <v>1.624949418496277</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.565958514581112</v>
@@ -26962,7 +26926,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.635705146042694</v>
+        <v>1.648846257954984</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.71580804029981</v>
@@ -27051,7 +27015,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.631311660856812</v>
+        <v>1.645740041294034</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.666593930389858</v>
@@ -27140,7 +27104,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.632053456181924</v>
+        <v>1.642410769021398</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.530271903767197</v>
@@ -27229,7 +27193,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.63619487085589</v>
+        <v>1.642819446040074</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.672281053420471</v>
@@ -27318,7 +27282,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.631427385265801</v>
+        <v>1.636285691362984</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.76243538618664</v>
@@ -27407,7 +27371,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.632514975129453</v>
+        <v>1.636861982345813</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.780000274850392</v>
@@ -27496,7 +27460,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.647808096717027</v>
+        <v>1.649099572993589</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.792829150953795</v>
@@ -27585,7 +27549,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.662942831425766</v>
+        <v>1.669348036268831</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.685327623596677</v>
@@ -27674,7 +27638,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.697190138855119</v>
+        <v>1.687053874754154</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.22897862308521</v>
@@ -27763,7 +27727,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.692887752050537</v>
+        <v>1.681816918928281</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.255038010922501</v>
@@ -27852,7 +27816,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.694571384638209</v>
+        <v>1.68609426831372</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.274170572678508</v>
@@ -28138,7 +28102,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.479002477327972</v>
+        <v>1.486980145288041</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.196908732005233</v>
@@ -28227,7 +28191,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.491392620366471</v>
+        <v>1.498114574970046</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.17793707971632</v>
@@ -28316,7 +28280,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.482654928043743</v>
+        <v>1.483513696868116</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.154512711292464</v>
@@ -28405,7 +28369,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.527614806269599</v>
+        <v>1.526230699496059</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.956695790357531</v>
@@ -28494,7 +28458,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.545926718879615</v>
+        <v>1.532796197230033</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.102074174947496</v>
@@ -28583,7 +28547,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.54435087800891</v>
+        <v>1.530391325360645</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.110695561521811</v>
@@ -28672,7 +28636,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.632498514044026</v>
+        <v>1.603891005395883</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.309312955349426</v>
@@ -28761,7 +28725,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.638008873766927</v>
+        <v>1.608986288349007</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.45707328097336</v>
@@ -28850,7 +28814,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.644585676712909</v>
+        <v>1.616971224766937</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.331064742074837</v>
@@ -28939,7 +28903,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.625293889944989</v>
+        <v>1.601363992244873</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.534053818225305</v>
@@ -29028,7 +28992,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.61321554420855</v>
+        <v>1.590687253987861</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.523798640745428</v>
@@ -29117,7 +29081,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.606259959804237</v>
+        <v>1.586485555794966</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.584078396357133</v>
@@ -29206,7 +29170,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.609431165784741</v>
+        <v>1.587017992767175</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.503856352249372</v>
@@ -29295,7 +29259,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.60617680498104</v>
+        <v>1.584837366982573</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.594877398588716</v>
@@ -29384,7 +29348,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.609514880840406</v>
+        <v>1.585244111048172</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.893184836113962</v>
@@ -29473,7 +29437,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.610139280712183</v>
+        <v>1.581466747806375</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.866276586709181</v>
@@ -29562,7 +29526,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.599684412379931</v>
+        <v>1.577761076804724</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.712240446223102</v>
@@ -29651,7 +29615,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.602934523885356</v>
+        <v>1.586030204531917</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.8086326801613</v>
@@ -29740,7 +29704,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.597689698128583</v>
+        <v>1.576179337914533</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.721982356282235</v>
@@ -29829,7 +29793,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.602235387587175</v>
+        <v>1.579942446124329</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.728533277202208</v>
@@ -29918,7 +29882,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.613076477459366</v>
+        <v>1.594674102942242</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.945208253334795</v>
@@ -30007,7 +29971,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.610864856261386</v>
+        <v>1.593655939195878</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.828287036644565</v>
@@ -30096,7 +30060,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.61308481073698</v>
+        <v>1.589737105752674</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.789797444488221</v>
@@ -30185,7 +30149,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.576167650581926</v>
+        <v>1.55782614483958</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.233635701631765</v>
@@ -30274,7 +30238,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.586562275091046</v>
+        <v>1.568448858990182</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.301821672789521</v>
@@ -30363,7 +30327,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.544989612414744</v>
+        <v>1.522508338495442</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.168643361396282</v>
@@ -30452,7 +30416,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.52197529954389</v>
+        <v>1.510920808331757</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.200754471319804</v>
@@ -30541,7 +30505,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.499683145411771</v>
+        <v>1.4903179887127</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.086871028467275</v>
@@ -30630,7 +30594,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.495537660295722</v>
+        <v>1.490502993770792</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.139342883353735</v>
@@ -30719,7 +30683,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.502772709557315</v>
+        <v>1.498783114455815</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.125317397344598</v>
@@ -30808,7 +30772,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.509314131119281</v>
+        <v>1.503213981907078</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.193170026129335</v>
@@ -30897,7 +30861,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.516383001509653</v>
+        <v>1.511614624114558</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.125542859021293</v>
@@ -30986,7 +30950,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.501836867806116</v>
+        <v>1.496676105265981</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.164966540618701</v>
@@ -31075,7 +31039,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.503027600953522</v>
+        <v>1.495802732850952</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.273872170622968</v>
@@ -31164,7 +31128,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.500794665879059</v>
+        <v>1.493238549915259</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.157635034020664</v>
@@ -31253,7 +31217,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.504897034474229</v>
+        <v>1.49730169017753</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.147988828259447</v>
@@ -31342,7 +31306,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.488793346323687</v>
+        <v>1.483507845673429</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.199065897398762</v>
@@ -31431,7 +31395,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.49851825491945</v>
+        <v>1.492544561913882</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.082434851492215</v>
@@ -31520,7 +31484,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.538682193399985</v>
+        <v>1.528721659615027</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.155902703895759</v>
@@ -31609,7 +31573,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.539148062349313</v>
+        <v>1.525865936085342</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.109451334320017</v>
@@ -31698,7 +31662,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.607305408749748</v>
+        <v>1.585105551998058</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.422068223047719</v>
@@ -31787,7 +31751,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.624217148731458</v>
+        <v>1.593942048404424</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.601793943460172</v>
@@ -31876,7 +31840,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.656519113663108</v>
+        <v>1.621927157432675</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.853184211536778</v>
@@ -31965,7 +31929,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.663483717047185</v>
+        <v>1.626955112017323</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.794139651202084</v>
@@ -32054,7 +32018,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.653472079114863</v>
+        <v>1.623027932386889</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.799170176078033</v>
@@ -32143,7 +32107,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.650260541773039</v>
+        <v>1.616091922446501</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.649057804120857</v>
@@ -32232,7 +32196,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.661735150439188</v>
+        <v>1.621050401355134</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.29356699297404</v>
@@ -32321,7 +32285,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.655595723998291</v>
+        <v>1.609821823126758</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.630364534550209</v>
@@ -32410,7 +32374,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.646828199587009</v>
+        <v>1.602389503643936</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.993128316793409</v>
